--- a/Планы.xlsx
+++ b/Планы.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Приоритет</t>
   </si>
@@ -36,13 +36,16 @@
     <t>Исправить баг со зданием когда они принимают неверные переменные</t>
   </si>
   <si>
-    <t>Программисты Никита Приходько, Бобров Виталий</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>67(100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> статус</t>
+  </si>
+  <si>
+    <t>не выполнено</t>
+  </si>
+  <si>
+    <t>Программисты: Никита Приходько, Бобров Виталий</t>
   </si>
 </sst>
 </file>
@@ -78,8 +81,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -384,40 +390,50 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="117.28515625" customWidth="1"/>
+    <col min="4" max="4" width="49.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
